--- a/Assets/Hotfix/Res/DataTable/Excel/Example.xlsx
+++ b/Assets/Hotfix/Res/DataTable/Excel/Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\oops-framework-cocos2unity\Assets\Hotfix\Resources\Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\CommonUnityFeaturesFramework\Assets\Hotfix\Res\DataTable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7732F76-1A52-4E68-BF6E-82AA1A64BDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B127346-CA87-41D1-A26F-BB7EC1069DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表格规则" sheetId="3" r:id="rId1"/>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>示例字符串1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>示例字符串2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,6 +295,10 @@
   </si>
   <si>
     <t>5.每个列字段第一行的内容可以不填写, 但是会被放入代码中作为字段注释,建议填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test\r\nttt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,32 +684,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +723,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,7 +774,7 @@
         <v>17</v>
       </c>
       <c r="N1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -818,7 +818,7 @@
         <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -903,7 +903,7 @@
         <v>40</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -926,7 +926,7 @@
         <v>10000000000</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -938,16 +938,16 @@
         <v>3.1415926500000002</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>10000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>3.1415926600000001</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>